--- a/ProductBacklog-11.xlsx
+++ b/ProductBacklog-11.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bookshelf\Study\Nam3_Hk1\CongNghePhanMem\QlyNhaHang\TienTrinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD3BBC1-0EA9-45B3-836D-07523D7B3C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="798" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="798" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project Information" sheetId="7" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Product backlog" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint backlog" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -339,64 +338,13 @@
   </si>
   <si>
     <t>30/09/2030</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>US-08</t>
-  </si>
-  <si>
-    <t>Giao diện Quản lý nhân viên</t>
-  </si>
-  <si>
-    <t>11/10/2024</t>
-  </si>
-  <si>
-    <t>25/10/2024</t>
-  </si>
-  <si>
-    <t>US-09</t>
-  </si>
-  <si>
-    <t>Giao diện Quản lý ca làm</t>
-  </si>
-  <si>
-    <t>US-10</t>
-  </si>
-  <si>
-    <t>Giao diện Quản lý bàn đặt</t>
-  </si>
-  <si>
-    <t>US-11</t>
-  </si>
-  <si>
-    <t>Giao diện Quản lý kho</t>
-  </si>
-  <si>
-    <t>US-12</t>
-  </si>
-  <si>
-    <t>Giao diện quản lý món ăn</t>
-  </si>
-  <si>
-    <t>US-13</t>
-  </si>
-  <si>
-    <t>Đã hoàn thành</t>
-  </si>
-  <si>
-    <t>Vẫn còn chỉnh sửa</t>
-  </si>
-  <si>
-    <t>Vẫn còn chỉnh sửa nhiều</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -420,6 +368,13 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color theme="0"/>
@@ -427,7 +382,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -712,26 +673,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,29 +692,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -791,10 +745,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -839,22 +799,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1266,257 +1222,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1528,107 +1484,107 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="253" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="253" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1641,301 +1597,310 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5546875" customWidth="1"/>
-    <col min="3" max="3" width="56.5546875" customWidth="1"/>
-    <col min="4" max="5" width="35.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="56.5703125" customWidth="1"/>
+    <col min="4" max="5" width="35.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="33"/>
-    </row>
-    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="33"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="37"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="33"/>
-    </row>
-    <row r="10" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="33"/>
-    </row>
-    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="37"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="33"/>
-    </row>
-    <row r="18" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="37"/>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="37"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="37"/>
+    </row>
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="33"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="37"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="34"/>
-    </row>
-    <row r="22" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="35"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="39"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="29"/>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1946,475 +1911,302 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="5"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="47">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
         <f>SUM(C7:C11)</f>
         <v>34</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="47">
-        <v>43</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="4">
         <v>5</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="47">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4">
         <v>8</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="47">
+      <c r="D8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="4">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="47">
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4">
         <v>8</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="47">
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="47">
+      <c r="D12" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="4">
         <v>5</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="47">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="47">
-        <v>8</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="47">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="47">
-        <v>8</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="47">
-        <v>8</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="47">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="47">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="47">
-        <v>3</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="47">
-        <v>8</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="47">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="47">
-        <v>8</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F17" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="47">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="47">
-        <v>8</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="47">
-        <v>8</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
